--- a/data/output/FV2404_FV2310/UTILMD/55185.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55185.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6421" uniqueCount="508">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6442" uniqueCount="508">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1734,6 +1734,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U285" totalsRowShown="0">
+  <autoFilter ref="A1:U285"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2023,7 +2053,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15591,5 +15624,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55185.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55185.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7816" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7728" uniqueCount="783">
   <si>
     <t>#</t>
   </si>
@@ -8912,46 +8912,44 @@
       <c r="V114" s="9"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="C115" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K115" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L115" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M115" s="2" t="s">
+      <c r="L115" s="7"/>
+      <c r="M115" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V115" s="2" t="s">
+      <c r="N115" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V115" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9118,46 +9116,44 @@
       <c r="V118" s="2"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2" t="s">
+      <c r="C119" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="L119" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M119" s="2" t="s">
+      <c r="L119" s="7"/>
+      <c r="M119" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N119" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2" t="s">
+      <c r="N119" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="V119" s="2" t="s">
+      <c r="V119" s="5" t="s">
         <v>405</v>
       </c>
     </row>
@@ -9324,46 +9320,44 @@
       <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="C123" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K123" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M123" s="2" t="s">
+      <c r="L123" s="7"/>
+      <c r="M123" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N123" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V123" s="2" t="s">
+      <c r="N123" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V123" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9530,46 +9524,44 @@
       <c r="V126" s="2"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
+      <c r="C127" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M127" s="2" t="s">
+      <c r="L127" s="7"/>
+      <c r="M127" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N127" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2" t="s">
+      <c r="N127" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="V127" s="2" t="s">
+      <c r="V127" s="5" t="s">
         <v>406</v>
       </c>
     </row>
@@ -9844,46 +9836,44 @@
       <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="C133" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K133" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L133" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M133" s="2" t="s">
+      <c r="L133" s="7"/>
+      <c r="M133" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V133" s="2" t="s">
+      <c r="N133" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V133" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10127,9 +10117,7 @@
         <v>326</v>
       </c>
       <c r="K138" s="2"/>
-      <c r="L138" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L138" s="7"/>
       <c r="M138" s="2" t="s">
         <v>51</v>
       </c>
@@ -10183,9 +10171,7 @@
         <v>326</v>
       </c>
       <c r="K139" s="2"/>
-      <c r="L139" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L139" s="7"/>
       <c r="M139" s="2" t="s">
         <v>51</v>
       </c>
@@ -10239,9 +10225,7 @@
         <v>326</v>
       </c>
       <c r="K140" s="2"/>
-      <c r="L140" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L140" s="7"/>
       <c r="M140" s="2" t="s">
         <v>51</v>
       </c>
@@ -10403,9 +10387,7 @@
         <v>356</v>
       </c>
       <c r="K143" s="2"/>
-      <c r="L143" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L143" s="7"/>
       <c r="M143" s="2" t="s">
         <v>52</v>
       </c>
@@ -10461,9 +10443,7 @@
       <c r="K144" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="L144" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L144" s="7"/>
       <c r="M144" s="2" t="s">
         <v>52</v>
       </c>
@@ -10492,46 +10472,44 @@
       </c>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="C145" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K145" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N145" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V145" s="2" t="s">
+      <c r="N145" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V145" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10729,9 +10707,7 @@
         <v>329</v>
       </c>
       <c r="K149" s="2"/>
-      <c r="L149" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L149" s="7"/>
       <c r="M149" s="2" t="s">
         <v>53</v>
       </c>
@@ -10758,46 +10734,44 @@
       <c r="V149" s="2"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="C150" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K150" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L150" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M150" s="2" t="s">
+      <c r="L150" s="7"/>
+      <c r="M150" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N150" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V150" s="2" t="s">
+      <c r="N150" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V150" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10937,9 +10911,7 @@
         <v>360</v>
       </c>
       <c r="K153" s="2"/>
-      <c r="L153" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L153" s="7"/>
       <c r="M153" s="2" t="s">
         <v>54</v>
       </c>
@@ -11101,9 +11073,7 @@
         <v>363</v>
       </c>
       <c r="K156" s="2"/>
-      <c r="L156" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L156" s="7"/>
       <c r="M156" s="2" t="s">
         <v>55</v>
       </c>
@@ -11157,9 +11127,7 @@
         <v>364</v>
       </c>
       <c r="K157" s="2"/>
-      <c r="L157" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L157" s="7"/>
       <c r="M157" s="2" t="s">
         <v>55</v>
       </c>
@@ -11386,46 +11354,44 @@
       <c r="V162" s="2"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2" t="s">
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K163" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L163" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M163" s="2" t="s">
+      <c r="L163" s="7"/>
+      <c r="M163" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N163" s="2" t="s">
+      <c r="N163" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2" t="s">
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="V163" s="2" t="s">
+      <c r="V163" s="5" t="s">
         <v>411</v>
       </c>
     </row>
@@ -11920,46 +11886,44 @@
       <c r="V172" s="2"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="C173" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K173" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M173" s="2" t="s">
+      <c r="L173" s="7"/>
+      <c r="M173" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N173" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V173" s="2" t="s">
+      <c r="N173" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V173" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -12180,46 +12144,44 @@
       <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="C178" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K178" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L178" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M178" s="2" t="s">
+      <c r="L178" s="7"/>
+      <c r="M178" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N178" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V178" s="2" t="s">
+      <c r="N178" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="5"/>
+      <c r="S178" s="5"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V178" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -12467,9 +12429,7 @@
         <v>368</v>
       </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L183" s="7"/>
       <c r="M183" s="2" t="s">
         <v>60</v>
       </c>
@@ -12496,46 +12456,44 @@
       <c r="V183" s="2"/>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2" t="s">
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="K184" s="2" t="s">
+      <c r="K184" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="L184" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M184" s="2" t="s">
+      <c r="L184" s="7"/>
+      <c r="M184" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="N184" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2" t="s">
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="V184" s="2" t="s">
+      <c r="V184" s="5" t="s">
         <v>413</v>
       </c>
     </row>
@@ -12806,46 +12764,44 @@
       </c>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2" t="s">
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L190" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M190" s="2" t="s">
+      <c r="L190" s="7"/>
+      <c r="M190" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N190" s="2" t="s">
+      <c r="N190" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2" t="s">
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="V190" s="2" t="s">
+      <c r="V190" s="5" t="s">
         <v>414</v>
       </c>
     </row>
@@ -13074,46 +13030,44 @@
       <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="C195" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K195" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L195" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M195" s="2" t="s">
+      <c r="L195" s="7"/>
+      <c r="M195" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N195" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="2"/>
-      <c r="R195" s="2"/>
-      <c r="S195" s="2"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V195" s="2" t="s">
+      <c r="N195" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+      <c r="U195" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V195" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -13384,46 +13338,44 @@
       <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="C201" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K201" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L201" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="L201" s="7"/>
+      <c r="M201" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V201" s="2" t="s">
+      <c r="N201" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V201" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -13590,46 +13542,44 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K205" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L205" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V205" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -13827,9 +13777,7 @@
         <v>326</v>
       </c>
       <c r="K209" s="2"/>
-      <c r="L209" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L209" s="7"/>
       <c r="M209" s="2" t="s">
         <v>65</v>
       </c>
@@ -13856,46 +13804,44 @@
       <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2" t="s">
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="K210" s="2" t="s">
+      <c r="K210" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="L210" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M210" s="2" t="s">
+      <c r="L210" s="7"/>
+      <c r="M210" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N210" s="2" t="s">
+      <c r="N210" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2" t="s">
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="V210" s="2" t="s">
+      <c r="V210" s="5" t="s">
         <v>416</v>
       </c>
     </row>
@@ -14390,46 +14336,44 @@
       <c r="V219" s="2"/>
     </row>
     <row r="220" spans="1:22">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="C220" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K220" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L220" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M220" s="2" t="s">
+      <c r="L220" s="7"/>
+      <c r="M220" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N220" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V220" s="2" t="s">
+      <c r="N220" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
+      <c r="U220" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V220" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14650,46 +14594,44 @@
       <c r="V224" s="2"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="C225" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K225" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L225" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M225" s="2" t="s">
+      <c r="L225" s="7"/>
+      <c r="M225" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N225" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V225" s="2" t="s">
+      <c r="N225" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+      <c r="U225" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V225" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14937,9 +14879,7 @@
         <v>368</v>
       </c>
       <c r="K230" s="2"/>
-      <c r="L230" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L230" s="7"/>
       <c r="M230" s="2" t="s">
         <v>60</v>
       </c>
@@ -14966,46 +14906,44 @@
       <c r="V230" s="2"/>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2" t="s">
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="K231" s="2" t="s">
+      <c r="K231" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="L231" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M231" s="2" t="s">
+      <c r="L231" s="7"/>
+      <c r="M231" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N231" s="2" t="s">
+      <c r="N231" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2" t="s">
+      <c r="O231" s="5"/>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="5"/>
+      <c r="R231" s="5"/>
+      <c r="S231" s="5"/>
+      <c r="T231" s="5"/>
+      <c r="U231" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="V231" s="2" t="s">
+      <c r="V231" s="5" t="s">
         <v>418</v>
       </c>
     </row>
@@ -15276,46 +15214,44 @@
       </c>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="C237" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K237" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L237" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M237" s="2" t="s">
+      <c r="L237" s="7"/>
+      <c r="M237" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N237" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="Q237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="U237" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V237" s="2" t="s">
+      <c r="N237" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="5"/>
+      <c r="T237" s="5"/>
+      <c r="U237" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V237" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -15457,9 +15393,7 @@
       <c r="K240" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L240" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L240" s="7"/>
       <c r="M240" s="2" t="s">
         <v>70</v>
       </c>
@@ -15575,9 +15509,7 @@
       <c r="K242" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="L242" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L242" s="7"/>
       <c r="M242" s="2" t="s">
         <v>70</v>
       </c>
@@ -15710,46 +15642,44 @@
       <c r="V244" s="2"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2" t="s">
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="K245" s="2" t="s">
+      <c r="K245" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L245" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M245" s="2" t="s">
+      <c r="L245" s="7"/>
+      <c r="M245" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N245" s="2" t="s">
+      <c r="N245" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-      <c r="Q245" s="2"/>
-      <c r="R245" s="2"/>
-      <c r="S245" s="2"/>
-      <c r="T245" s="2"/>
-      <c r="U245" s="2" t="s">
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="5"/>
+      <c r="U245" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="V245" s="2" t="s">
+      <c r="V245" s="5" t="s">
         <v>421</v>
       </c>
     </row>
@@ -16020,46 +15950,44 @@
       </c>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="C251" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K251" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L251" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M251" s="2" t="s">
+      <c r="L251" s="7"/>
+      <c r="M251" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N251" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V251" s="2" t="s">
+      <c r="N251" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V251" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -16272,46 +16200,44 @@
       <c r="V255" s="2"/>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="C256" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K256" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L256" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M256" s="2" t="s">
+      <c r="L256" s="7"/>
+      <c r="M256" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N256" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V256" s="2" t="s">
+      <c r="N256" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V256" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -16453,9 +16379,7 @@
       <c r="K259" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L259" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L259" s="7"/>
       <c r="M259" s="2" t="s">
         <v>70</v>
       </c>
@@ -16569,9 +16493,7 @@
         <v>326</v>
       </c>
       <c r="K261" s="2"/>
-      <c r="L261" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L261" s="7"/>
       <c r="M261" s="2" t="s">
         <v>70</v>
       </c>
@@ -16702,46 +16624,44 @@
       <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="C264" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K264" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L264" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M264" s="2" t="s">
+      <c r="L264" s="7"/>
+      <c r="M264" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N264" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V264" s="2" t="s">
+      <c r="N264" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V264" s="5" t="s">
         <v>388</v>
       </c>
     </row>
@@ -16881,9 +16801,7 @@
         <v>326</v>
       </c>
       <c r="K267" s="2"/>
-      <c r="L267" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L267" s="7"/>
       <c r="M267" s="2" t="s">
         <v>73</v>
       </c>
@@ -17107,9 +17025,7 @@
         <v>326</v>
       </c>
       <c r="K271" s="2"/>
-      <c r="L271" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="L271" s="7"/>
       <c r="M271" s="2" t="s">
         <v>73</v>
       </c>
@@ -17136,46 +17052,44 @@
       <c r="V271" s="2"/>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2" t="s">
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="K272" s="2" t="s">
+      <c r="K272" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="L272" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M272" s="2" t="s">
+      <c r="L272" s="7"/>
+      <c r="M272" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N272" s="2" t="s">
+      <c r="N272" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-      <c r="Q272" s="2"/>
-      <c r="R272" s="2"/>
-      <c r="S272" s="2"/>
-      <c r="T272" s="2"/>
-      <c r="U272" s="2" t="s">
+      <c r="O272" s="5"/>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="V272" s="2" t="s">
+      <c r="V272" s="5" t="s">
         <v>423</v>
       </c>
     </row>
@@ -17446,46 +17360,44 @@
       </c>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="C278" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K278" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="L278" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="M278" s="2" t="s">
+      <c r="L278" s="7"/>
+      <c r="M278" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N278" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
-      <c r="R278" s="2"/>
-      <c r="S278" s="2"/>
-      <c r="T278" s="2"/>
-      <c r="U278" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="V278" s="2" t="s">
+      <c r="N278" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="V278" s="5" t="s">
         <v>388</v>
       </c>
     </row>
